--- a/train_tools/qna/train_data.xlsx
+++ b/train_tools/qna/train_data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>의도(Intent)</t>
   </si>
@@ -32,7 +32,7 @@
   </si>
   <si>
     <t>네 안녕하세요 :D
- 반갑습니다. 저는 챗봇입니다.</t>
+  반갑습니다. 저는 챗봇입니다.</t>
   </si>
   <si>
     <t>반가워요</t>
@@ -47,16 +47,13 @@
     <t>{B_POLICY} 궁금해요</t>
   </si>
   <si>
-    <t>서울시 청년수당은 현재 모집이 마감되었습니다.</t>
-  </si>
-  <si>
-    <t>B_POLCY</t>
+    <t>{B_POLICY} 서울시 청년수당은 현재 모집이 마감되었습니다.</t>
   </si>
   <si>
     <t>{B_POLICY} 어떻게 받을 수 있나요?</t>
   </si>
   <si>
-    <t>19~34세의 청년은 누구나 받을 수 있습니다.</t>
+    <t>{B_POLICY} 19~34세의 청년은 누구나 받을 수 있습니다.</t>
   </si>
   <si>
     <t>예약</t>
@@ -90,12 +87,12 @@
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="7.0"/>
       <color rgb="FF000000"/>
       <name val="&quot;Apple SD Gothic Neo&quot;"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="7.0"/>
       <color rgb="FF000000"/>
       <name val="&quot;Apple SD Gothic Neo&quot;"/>
     </font>
@@ -105,23 +102,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="7.0"/>
       <color rgb="FF000000"/>
       <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -142,48 +133,43 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF9A9A9A"/>
+        <color rgb="FF888888"/>
       </left>
       <right style="thin">
-        <color rgb="FF9A9A9A"/>
+        <color rgb="FF888888"/>
       </right>
       <top style="thin">
-        <color rgb="FF9A9A9A"/>
+        <color rgb="FF888888"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF9A9A9A"/>
+        <color rgb="FF888888"/>
       </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -423,91 +409,91 @@
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="9" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="9" t="s">
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="8">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
